--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/results/resultado_RCE_1.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/results/resultado_RCE_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>best fitness value</t>
+          <t>Best Fitness Value</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>Media Fitness</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>desvio</t>
+          <t>Desvio Padrão</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>var_decision</t>
+          <t>Variaveis Decisão</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>solution_gen</t>
+          <t>Solution Generation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Crossover</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Percentual</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Num Var Diferença</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Delta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RCE Generations</t>
         </is>
       </c>
     </row>
@@ -470,21 +495,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.263995604140661</v>
+        <v>0.0340204176439034</v>
       </c>
       <c r="C2" t="n">
-        <v>180.3900484862583</v>
+        <v>38.83661726652554</v>
       </c>
       <c r="D2" t="n">
-        <v>38.34834400295141</v>
+        <v>15.35811662751329</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.996, 0.016, 0.003, 0.001, -0.003, 0.007, 0.043, -0.026, 0.057, -0.018]</t>
+          <t>[0.013, -0.0, 0.305, 1.825, 2.881, 1.662, 1.377, 3.687, 3.714, 4.382]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/results/resultado_RCE_1.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/results/resultado_RCE_1.xlsx
@@ -495,36 +495,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0340204176439034</v>
+        <v>0.01956926540036719</v>
       </c>
       <c r="C2" t="n">
-        <v>38.83661726652554</v>
+        <v>36.52141174284134</v>
       </c>
       <c r="D2" t="n">
-        <v>15.35811662751329</v>
+        <v>13.57583797118635</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.013, -0.0, 0.305, 1.825, 2.881, 1.662, 1.377, 3.687, 3.714, 4.382]</t>
+          <t>[0.001, 0.01, 2.647, 2.329, -2.014, 1.156, 4.467, 2.249, 0.019, 0.904]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>356</v>
+        <v>207</v>
       </c>
       <c r="G2" t="n">
         <v>0.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
